--- a/biology/Médecine/1168_en_santé_et_médecine/1168_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1168_en_santé_et_médecine/1168_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1168_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1168_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1168 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1168_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1168_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation par Helle Destailleurs, bourgeoise de Lille, de l'hôpital Saint-Niçaise, « pour recevoir des malades des deux sexes et des femmes en couches » et qui sera intégré à l'hôpital général vers le milieu du XVIIIe siècle[1].
-« Un hôpital dit « de las Treilles », appelé aussi « Portes Vermelhas », est mentionné » à Saint-Antonin, en Rouergue[2].
-Les Hospitaliers possèdent une maison hôpital à La Landelle, dans le Vexin[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation par Helle Destailleurs, bourgeoise de Lille, de l'hôpital Saint-Niçaise, « pour recevoir des malades des deux sexes et des femmes en couches » et qui sera intégré à l'hôpital général vers le milieu du XVIIIe siècle.
+« Un hôpital dit « de las Treilles », appelé aussi « Portes Vermelhas », est mentionné » à Saint-Antonin, en Rouergue.
+Les Hospitaliers possèdent une maison hôpital à La Landelle, dans le Vexin.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1168_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1168_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Guillaume IV, comte de Nevers, mourant de la peste à Ptolémaïde, lègue l'hôpital de Panthénor et ses dépendances au diocèse de Bethléem en Palestine[4].
-1167 ou 1168 : Raoul II, comte de Vermandois, meurt lépreux[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guillaume IV, comte de Nevers, mourant de la peste à Ptolémaïde, lègue l'hôpital de Panthénor et ses dépendances au diocèse de Bethléem en Palestine.
+1167 ou 1168 : Raoul II, comte de Vermandois, meurt lépreux.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1168_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1168_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Jean et Laurent, « médecin[s] témoin[s], à Chartres, de la confirmation par Thibaut V, comte de Chartres, d'une donation faite par Foulques de Marolles à la léproserie du Grand-Beaulieu[6] ».
-Fl. Julien, médecin cité dans une charte d'Aicard, évêque de Chalon[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Jean et Laurent, « médecin[s] témoin[s], à Chartres, de la confirmation par Thibaut V, comte de Chartres, d'une donation faite par Foulques de Marolles à la léproserie du Grand-Beaulieu ».
+Fl. Julien, médecin cité dans une charte d'Aicard, évêque de Chalon.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1168_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1168_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1168 ou vers 1175 : Robert Grossetête (mort en 1253), théologien  et auteur de traités scientifiques dans lesquels, en médecine, il a employé « la méthode de résolution et composition, appliquée à l'étude du processus d'action des médicaments », dans le cas, par exemple, de la scammonée et de la bile[6].
-Vers 1168 : Jean de Saint-Alban (mort après 1253 ?), nommé Premier médecin du roi de France Philippe Auguste en 1198[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1168 ou vers 1175 : Robert Grossetête (mort en 1253), théologien  et auteur de traités scientifiques dans lesquels, en médecine, il a employé « la méthode de résolution et composition, appliquée à l'étude du processus d'action des médicaments », dans le cas, par exemple, de la scammonée et de la bile.
+Vers 1168 : Jean de Saint-Alban (mort après 1253 ?), nommé Premier médecin du roi de France Philippe Auguste en 1198.
 </t>
         </is>
       </c>
